--- a/Datasets/Immigration.xlsx
+++ b/Datasets/Immigration.xlsx
@@ -1,29 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Dropbox\MSc Data Science and Analytics\Data Visualization\Coursework 2\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/831e8e9345796059/MSc Data Science and Analytics/Data Visualization/Coursework 2/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBE5CE58-F7C0-4D57-96DC-9EDD530C4774}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{EBE5CE58-F7C0-4D57-96DC-9EDD530C4774}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1364CE66-E2AF-46A9-A451-8713BB0AEB1B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18645" yWindow="2850" windowWidth="21600" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Structure" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet 1" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet 2" sheetId="4" r:id="rId4"/>
+    <sheet name="DataAnalysis" sheetId="5" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" r:id="rId2"/>
+    <sheet name="Structure" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet 1" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet 2" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="119">
   <si>
     <t>Immigration [TPS00176]</t>
   </si>
@@ -378,6 +390,9 @@
   <si>
     <t>provisional</t>
   </si>
+  <si>
+    <t>Country</t>
+  </si>
 </sst>
 </file>
 
@@ -478,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -526,6 +541,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -533,6 +549,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -895,29 +912,2839 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D854DC34-EB33-4732-837D-3B7ED220EF12}">
+  <dimension ref="A1:M52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A2:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="17">
+        <v>2008</v>
+      </c>
+      <c r="C1" s="17">
+        <v>2009</v>
+      </c>
+      <c r="D1" s="17">
+        <v>2010</v>
+      </c>
+      <c r="E1" s="17">
+        <v>2011</v>
+      </c>
+      <c r="F1" s="17">
+        <v>2012</v>
+      </c>
+      <c r="G1" s="17">
+        <v>2013</v>
+      </c>
+      <c r="H1" s="17">
+        <v>2014</v>
+      </c>
+      <c r="I1" s="17">
+        <v>2015</v>
+      </c>
+      <c r="J1" s="17">
+        <v>2016</v>
+      </c>
+      <c r="K1" s="17">
+        <v>2017</v>
+      </c>
+      <c r="L1" s="17">
+        <v>2018</v>
+      </c>
+      <c r="M1" s="17">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="str">
+        <f>'Sheet 1'!A14</f>
+        <v>European Union - 27 countries (from 2020)</v>
+      </c>
+      <c r="B2" s="21" t="str">
+        <f>'Sheet 1'!B14</f>
+        <v>:</v>
+      </c>
+      <c r="C2" s="21" t="str">
+        <f>'Sheet 1'!D14</f>
+        <v>:</v>
+      </c>
+      <c r="D2" s="21" t="str">
+        <f>'Sheet 1'!F14</f>
+        <v>:</v>
+      </c>
+      <c r="E2" s="21" t="str">
+        <f>'Sheet 1'!H14</f>
+        <v>:</v>
+      </c>
+      <c r="F2" s="21" t="str">
+        <f>'Sheet 1'!J14</f>
+        <v>:</v>
+      </c>
+      <c r="G2" s="21" t="str">
+        <f>'Sheet 1'!L14</f>
+        <v>:</v>
+      </c>
+      <c r="H2" s="21" t="str">
+        <f>'Sheet 1'!N14</f>
+        <v>:</v>
+      </c>
+      <c r="I2" s="21" t="str">
+        <f>'Sheet 1'!P14</f>
+        <v>:</v>
+      </c>
+      <c r="J2" s="21" t="str">
+        <f>'Sheet 1'!R14</f>
+        <v>:</v>
+      </c>
+      <c r="K2" s="21" t="str">
+        <f>'Sheet 1'!T14</f>
+        <v>:</v>
+      </c>
+      <c r="L2" s="21" t="str">
+        <f>'Sheet 1'!V14</f>
+        <v>:</v>
+      </c>
+      <c r="M2" s="21" t="str">
+        <f>'Sheet 1'!X14</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="str">
+        <f>'Sheet 1'!A15</f>
+        <v>European Union - 28 countries (2013-2020)</v>
+      </c>
+      <c r="B3" s="21" t="str">
+        <f>'Sheet 1'!B15</f>
+        <v>:</v>
+      </c>
+      <c r="C3" s="21" t="str">
+        <f>'Sheet 1'!D15</f>
+        <v>:</v>
+      </c>
+      <c r="D3" s="21" t="str">
+        <f>'Sheet 1'!F15</f>
+        <v>:</v>
+      </c>
+      <c r="E3" s="21" t="str">
+        <f>'Sheet 1'!H15</f>
+        <v>:</v>
+      </c>
+      <c r="F3" s="21" t="str">
+        <f>'Sheet 1'!J15</f>
+        <v>:</v>
+      </c>
+      <c r="G3" s="21" t="str">
+        <f>'Sheet 1'!L15</f>
+        <v>:</v>
+      </c>
+      <c r="H3" s="21" t="str">
+        <f>'Sheet 1'!N15</f>
+        <v>:</v>
+      </c>
+      <c r="I3" s="21" t="str">
+        <f>'Sheet 1'!P15</f>
+        <v>:</v>
+      </c>
+      <c r="J3" s="21" t="str">
+        <f>'Sheet 1'!R15</f>
+        <v>:</v>
+      </c>
+      <c r="K3" s="21" t="str">
+        <f>'Sheet 1'!T15</f>
+        <v>:</v>
+      </c>
+      <c r="L3" s="21" t="str">
+        <f>'Sheet 1'!V15</f>
+        <v>:</v>
+      </c>
+      <c r="M3" s="21" t="str">
+        <f>'Sheet 1'!X15</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="str">
+        <f>'Sheet 1'!A16</f>
+        <v>Euro area - 19 countries  (from 2015)</v>
+      </c>
+      <c r="B4" s="21" t="str">
+        <f>'Sheet 1'!B16</f>
+        <v>:</v>
+      </c>
+      <c r="C4" s="21" t="str">
+        <f>'Sheet 1'!D16</f>
+        <v>:</v>
+      </c>
+      <c r="D4" s="21" t="str">
+        <f>'Sheet 1'!F16</f>
+        <v>:</v>
+      </c>
+      <c r="E4" s="21" t="str">
+        <f>'Sheet 1'!H16</f>
+        <v>:</v>
+      </c>
+      <c r="F4" s="21" t="str">
+        <f>'Sheet 1'!J16</f>
+        <v>:</v>
+      </c>
+      <c r="G4" s="21" t="str">
+        <f>'Sheet 1'!L16</f>
+        <v>:</v>
+      </c>
+      <c r="H4" s="21" t="str">
+        <f>'Sheet 1'!N16</f>
+        <v>:</v>
+      </c>
+      <c r="I4" s="21" t="str">
+        <f>'Sheet 1'!P16</f>
+        <v>:</v>
+      </c>
+      <c r="J4" s="21" t="str">
+        <f>'Sheet 1'!R16</f>
+        <v>:</v>
+      </c>
+      <c r="K4" s="21" t="str">
+        <f>'Sheet 1'!T16</f>
+        <v>:</v>
+      </c>
+      <c r="L4" s="21" t="str">
+        <f>'Sheet 1'!V16</f>
+        <v>:</v>
+      </c>
+      <c r="M4" s="21" t="str">
+        <f>'Sheet 1'!X16</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="str">
+        <f>'Sheet 1'!A17</f>
+        <v>Belgium</v>
+      </c>
+      <c r="B5" s="21" t="str">
+        <f>'Sheet 1'!B17</f>
+        <v>:</v>
+      </c>
+      <c r="C5" s="21" t="str">
+        <f>'Sheet 1'!D17</f>
+        <v>:</v>
+      </c>
+      <c r="D5" s="21">
+        <f>'Sheet 1'!F17</f>
+        <v>135281</v>
+      </c>
+      <c r="E5" s="21">
+        <f>'Sheet 1'!H17</f>
+        <v>147377</v>
+      </c>
+      <c r="F5" s="21">
+        <f>'Sheet 1'!J17</f>
+        <v>129477</v>
+      </c>
+      <c r="G5" s="21">
+        <f>'Sheet 1'!L17</f>
+        <v>120078</v>
+      </c>
+      <c r="H5" s="21">
+        <f>'Sheet 1'!N17</f>
+        <v>123158</v>
+      </c>
+      <c r="I5" s="21">
+        <f>'Sheet 1'!P17</f>
+        <v>146626</v>
+      </c>
+      <c r="J5" s="21">
+        <f>'Sheet 1'!R17</f>
+        <v>123702</v>
+      </c>
+      <c r="K5" s="21">
+        <f>'Sheet 1'!T17</f>
+        <v>126703</v>
+      </c>
+      <c r="L5" s="21">
+        <f>'Sheet 1'!V17</f>
+        <v>137860</v>
+      </c>
+      <c r="M5" s="21">
+        <f>'Sheet 1'!X17</f>
+        <v>150006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="str">
+        <f>'Sheet 1'!A18</f>
+        <v>Bulgaria</v>
+      </c>
+      <c r="B6" s="21" t="str">
+        <f>'Sheet 1'!B18</f>
+        <v>:</v>
+      </c>
+      <c r="C6" s="21" t="str">
+        <f>'Sheet 1'!D18</f>
+        <v>:</v>
+      </c>
+      <c r="D6" s="21" t="str">
+        <f>'Sheet 1'!F18</f>
+        <v>:</v>
+      </c>
+      <c r="E6" s="21" t="str">
+        <f>'Sheet 1'!H18</f>
+        <v>:</v>
+      </c>
+      <c r="F6" s="21">
+        <f>'Sheet 1'!J18</f>
+        <v>14103</v>
+      </c>
+      <c r="G6" s="21">
+        <f>'Sheet 1'!L18</f>
+        <v>18570</v>
+      </c>
+      <c r="H6" s="21">
+        <f>'Sheet 1'!N18</f>
+        <v>26615</v>
+      </c>
+      <c r="I6" s="21">
+        <f>'Sheet 1'!P18</f>
+        <v>25223</v>
+      </c>
+      <c r="J6" s="21">
+        <f>'Sheet 1'!R18</f>
+        <v>21241</v>
+      </c>
+      <c r="K6" s="21">
+        <f>'Sheet 1'!T18</f>
+        <v>25597</v>
+      </c>
+      <c r="L6" s="21">
+        <f>'Sheet 1'!V18</f>
+        <v>29559</v>
+      </c>
+      <c r="M6" s="21">
+        <f>'Sheet 1'!X18</f>
+        <v>37929</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="str">
+        <f>'Sheet 1'!A19</f>
+        <v>Czechia</v>
+      </c>
+      <c r="B7" s="21">
+        <f>'Sheet 1'!B19</f>
+        <v>108267</v>
+      </c>
+      <c r="C7" s="21">
+        <f>'Sheet 1'!D19</f>
+        <v>75620</v>
+      </c>
+      <c r="D7" s="21">
+        <f>'Sheet 1'!F19</f>
+        <v>48317</v>
+      </c>
+      <c r="E7" s="21">
+        <f>'Sheet 1'!H19</f>
+        <v>27114</v>
+      </c>
+      <c r="F7" s="21">
+        <f>'Sheet 1'!J19</f>
+        <v>34337</v>
+      </c>
+      <c r="G7" s="21">
+        <f>'Sheet 1'!L19</f>
+        <v>30124</v>
+      </c>
+      <c r="H7" s="21">
+        <f>'Sheet 1'!N19</f>
+        <v>29897</v>
+      </c>
+      <c r="I7" s="21">
+        <f>'Sheet 1'!P19</f>
+        <v>29602</v>
+      </c>
+      <c r="J7" s="21">
+        <f>'Sheet 1'!R19</f>
+        <v>64083</v>
+      </c>
+      <c r="K7" s="21">
+        <f>'Sheet 1'!T19</f>
+        <v>51847</v>
+      </c>
+      <c r="L7" s="21">
+        <f>'Sheet 1'!V19</f>
+        <v>65910</v>
+      </c>
+      <c r="M7" s="21">
+        <f>'Sheet 1'!X19</f>
+        <v>105888</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="str">
+        <f>'Sheet 1'!A20</f>
+        <v>Denmark</v>
+      </c>
+      <c r="B8" s="21">
+        <f>'Sheet 1'!B20</f>
+        <v>57357</v>
+      </c>
+      <c r="C8" s="21">
+        <f>'Sheet 1'!D20</f>
+        <v>51800</v>
+      </c>
+      <c r="D8" s="21">
+        <f>'Sheet 1'!F20</f>
+        <v>52236</v>
+      </c>
+      <c r="E8" s="21">
+        <f>'Sheet 1'!H20</f>
+        <v>52833</v>
+      </c>
+      <c r="F8" s="21">
+        <f>'Sheet 1'!J20</f>
+        <v>54409</v>
+      </c>
+      <c r="G8" s="21">
+        <f>'Sheet 1'!L20</f>
+        <v>60312</v>
+      </c>
+      <c r="H8" s="21">
+        <f>'Sheet 1'!N20</f>
+        <v>68388</v>
+      </c>
+      <c r="I8" s="21">
+        <f>'Sheet 1'!P20</f>
+        <v>78492</v>
+      </c>
+      <c r="J8" s="21">
+        <f>'Sheet 1'!R20</f>
+        <v>74383</v>
+      </c>
+      <c r="K8" s="21">
+        <f>'Sheet 1'!T20</f>
+        <v>68579</v>
+      </c>
+      <c r="L8" s="21">
+        <f>'Sheet 1'!V20</f>
+        <v>64669</v>
+      </c>
+      <c r="M8" s="21">
+        <f>'Sheet 1'!X20</f>
+        <v>61384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="str">
+        <f>'Sheet 1'!A21</f>
+        <v>Germany (until 1990 former territory of the FRG)</v>
+      </c>
+      <c r="B9" s="21">
+        <f>'Sheet 1'!B21</f>
+        <v>682146</v>
+      </c>
+      <c r="C9" s="21">
+        <f>'Sheet 1'!D21</f>
+        <v>346216</v>
+      </c>
+      <c r="D9" s="21">
+        <f>'Sheet 1'!F21</f>
+        <v>404055</v>
+      </c>
+      <c r="E9" s="21">
+        <f>'Sheet 1'!H21</f>
+        <v>489422</v>
+      </c>
+      <c r="F9" s="21">
+        <f>'Sheet 1'!J21</f>
+        <v>592175</v>
+      </c>
+      <c r="G9" s="21">
+        <f>'Sheet 1'!L21</f>
+        <v>692713</v>
+      </c>
+      <c r="H9" s="21">
+        <f>'Sheet 1'!N21</f>
+        <v>884893</v>
+      </c>
+      <c r="I9" s="21">
+        <f>'Sheet 1'!P21</f>
+        <v>1571047</v>
+      </c>
+      <c r="J9" s="21">
+        <f>'Sheet 1'!R21</f>
+        <v>1029852</v>
+      </c>
+      <c r="K9" s="21">
+        <f>'Sheet 1'!T21</f>
+        <v>917109</v>
+      </c>
+      <c r="L9" s="21">
+        <f>'Sheet 1'!V21</f>
+        <v>893886</v>
+      </c>
+      <c r="M9" s="21">
+        <f>'Sheet 1'!X21</f>
+        <v>886341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="str">
+        <f>'Sheet 1'!A22</f>
+        <v>Estonia</v>
+      </c>
+      <c r="B10" s="21">
+        <f>'Sheet 1'!B22</f>
+        <v>3671</v>
+      </c>
+      <c r="C10" s="21">
+        <f>'Sheet 1'!D22</f>
+        <v>3884</v>
+      </c>
+      <c r="D10" s="21">
+        <f>'Sheet 1'!F22</f>
+        <v>2810</v>
+      </c>
+      <c r="E10" s="21">
+        <f>'Sheet 1'!H22</f>
+        <v>3709</v>
+      </c>
+      <c r="F10" s="21">
+        <f>'Sheet 1'!J22</f>
+        <v>2639</v>
+      </c>
+      <c r="G10" s="21">
+        <f>'Sheet 1'!L22</f>
+        <v>4109</v>
+      </c>
+      <c r="H10" s="21">
+        <f>'Sheet 1'!N22</f>
+        <v>3904</v>
+      </c>
+      <c r="I10" s="21">
+        <f>'Sheet 1'!P22</f>
+        <v>15413</v>
+      </c>
+      <c r="J10" s="21">
+        <f>'Sheet 1'!R22</f>
+        <v>14822</v>
+      </c>
+      <c r="K10" s="21">
+        <f>'Sheet 1'!T22</f>
+        <v>17616</v>
+      </c>
+      <c r="L10" s="21">
+        <f>'Sheet 1'!V22</f>
+        <v>17547</v>
+      </c>
+      <c r="M10" s="21">
+        <f>'Sheet 1'!X22</f>
+        <v>18259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="str">
+        <f>'Sheet 1'!A23</f>
+        <v>Ireland</v>
+      </c>
+      <c r="B11" s="21">
+        <f>'Sheet 1'!B23</f>
+        <v>82592</v>
+      </c>
+      <c r="C11" s="21">
+        <f>'Sheet 1'!D23</f>
+        <v>50604</v>
+      </c>
+      <c r="D11" s="21">
+        <f>'Sheet 1'!F23</f>
+        <v>52339</v>
+      </c>
+      <c r="E11" s="21">
+        <f>'Sheet 1'!H23</f>
+        <v>57292</v>
+      </c>
+      <c r="F11" s="21">
+        <f>'Sheet 1'!J23</f>
+        <v>61324</v>
+      </c>
+      <c r="G11" s="21">
+        <f>'Sheet 1'!L23</f>
+        <v>65539</v>
+      </c>
+      <c r="H11" s="21">
+        <f>'Sheet 1'!N23</f>
+        <v>73519</v>
+      </c>
+      <c r="I11" s="21">
+        <f>'Sheet 1'!P23</f>
+        <v>80792</v>
+      </c>
+      <c r="J11" s="21">
+        <f>'Sheet 1'!R23</f>
+        <v>85185</v>
+      </c>
+      <c r="K11" s="21">
+        <f>'Sheet 1'!T23</f>
+        <v>78499</v>
+      </c>
+      <c r="L11" s="21">
+        <f>'Sheet 1'!V23</f>
+        <v>97712</v>
+      </c>
+      <c r="M11" s="21">
+        <f>'Sheet 1'!X23</f>
+        <v>85630</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="str">
+        <f>'Sheet 1'!A24</f>
+        <v>Greece</v>
+      </c>
+      <c r="B12" s="21">
+        <f>'Sheet 1'!B24</f>
+        <v>66529</v>
+      </c>
+      <c r="C12" s="21">
+        <f>'Sheet 1'!D24</f>
+        <v>58613</v>
+      </c>
+      <c r="D12" s="21">
+        <f>'Sheet 1'!F24</f>
+        <v>60462</v>
+      </c>
+      <c r="E12" s="21">
+        <f>'Sheet 1'!H24</f>
+        <v>60089</v>
+      </c>
+      <c r="F12" s="21">
+        <f>'Sheet 1'!J24</f>
+        <v>58200</v>
+      </c>
+      <c r="G12" s="21">
+        <f>'Sheet 1'!L24</f>
+        <v>57946</v>
+      </c>
+      <c r="H12" s="21">
+        <f>'Sheet 1'!N24</f>
+        <v>59013</v>
+      </c>
+      <c r="I12" s="21">
+        <f>'Sheet 1'!P24</f>
+        <v>64446</v>
+      </c>
+      <c r="J12" s="21">
+        <f>'Sheet 1'!R24</f>
+        <v>116867</v>
+      </c>
+      <c r="K12" s="21">
+        <f>'Sheet 1'!T24</f>
+        <v>112247</v>
+      </c>
+      <c r="L12" s="21">
+        <f>'Sheet 1'!V24</f>
+        <v>119489</v>
+      </c>
+      <c r="M12" s="21">
+        <f>'Sheet 1'!X24</f>
+        <v>129459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="str">
+        <f>'Sheet 1'!A25</f>
+        <v>Spain</v>
+      </c>
+      <c r="B13" s="21">
+        <f>'Sheet 1'!B25</f>
+        <v>599075</v>
+      </c>
+      <c r="C13" s="21">
+        <f>'Sheet 1'!D25</f>
+        <v>392962</v>
+      </c>
+      <c r="D13" s="21">
+        <f>'Sheet 1'!F25</f>
+        <v>360705</v>
+      </c>
+      <c r="E13" s="21">
+        <f>'Sheet 1'!H25</f>
+        <v>371331</v>
+      </c>
+      <c r="F13" s="21">
+        <f>'Sheet 1'!J25</f>
+        <v>304053</v>
+      </c>
+      <c r="G13" s="21">
+        <f>'Sheet 1'!L25</f>
+        <v>280772</v>
+      </c>
+      <c r="H13" s="21">
+        <f>'Sheet 1'!N25</f>
+        <v>305454</v>
+      </c>
+      <c r="I13" s="21">
+        <f>'Sheet 1'!P25</f>
+        <v>342114</v>
+      </c>
+      <c r="J13" s="21">
+        <f>'Sheet 1'!R25</f>
+        <v>414746</v>
+      </c>
+      <c r="K13" s="21">
+        <f>'Sheet 1'!T25</f>
+        <v>532132</v>
+      </c>
+      <c r="L13" s="21">
+        <f>'Sheet 1'!V25</f>
+        <v>643684</v>
+      </c>
+      <c r="M13" s="21">
+        <f>'Sheet 1'!X25</f>
+        <v>750480</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="str">
+        <f>'Sheet 1'!A26</f>
+        <v>France</v>
+      </c>
+      <c r="B14" s="21">
+        <f>'Sheet 1'!B26</f>
+        <v>296608</v>
+      </c>
+      <c r="C14" s="21">
+        <f>'Sheet 1'!D26</f>
+        <v>296970</v>
+      </c>
+      <c r="D14" s="21">
+        <f>'Sheet 1'!F26</f>
+        <v>307111</v>
+      </c>
+      <c r="E14" s="21">
+        <f>'Sheet 1'!H26</f>
+        <v>319816</v>
+      </c>
+      <c r="F14" s="21">
+        <f>'Sheet 1'!J26</f>
+        <v>327431</v>
+      </c>
+      <c r="G14" s="21">
+        <f>'Sheet 1'!L26</f>
+        <v>338752</v>
+      </c>
+      <c r="H14" s="21">
+        <f>'Sheet 1'!N26</f>
+        <v>340383</v>
+      </c>
+      <c r="I14" s="21">
+        <f>'Sheet 1'!P26</f>
+        <v>364221</v>
+      </c>
+      <c r="J14" s="21">
+        <f>'Sheet 1'!R26</f>
+        <v>377709</v>
+      </c>
+      <c r="K14" s="21">
+        <f>'Sheet 1'!T26</f>
+        <v>369621</v>
+      </c>
+      <c r="L14" s="21">
+        <f>'Sheet 1'!V26</f>
+        <v>387158</v>
+      </c>
+      <c r="M14" s="21">
+        <f>'Sheet 1'!X26</f>
+        <v>385591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="str">
+        <f>'Sheet 1'!A27</f>
+        <v>Croatia</v>
+      </c>
+      <c r="B15" s="21">
+        <f>'Sheet 1'!B27</f>
+        <v>16883</v>
+      </c>
+      <c r="C15" s="21">
+        <f>'Sheet 1'!D27</f>
+        <v>13213</v>
+      </c>
+      <c r="D15" s="21">
+        <f>'Sheet 1'!F27</f>
+        <v>8846</v>
+      </c>
+      <c r="E15" s="21">
+        <f>'Sheet 1'!H27</f>
+        <v>8534</v>
+      </c>
+      <c r="F15" s="21">
+        <f>'Sheet 1'!J27</f>
+        <v>8959</v>
+      </c>
+      <c r="G15" s="21">
+        <f>'Sheet 1'!L27</f>
+        <v>10378</v>
+      </c>
+      <c r="H15" s="21">
+        <f>'Sheet 1'!N27</f>
+        <v>10638</v>
+      </c>
+      <c r="I15" s="21">
+        <f>'Sheet 1'!P27</f>
+        <v>11706</v>
+      </c>
+      <c r="J15" s="21">
+        <f>'Sheet 1'!R27</f>
+        <v>13985</v>
+      </c>
+      <c r="K15" s="21">
+        <f>'Sheet 1'!T27</f>
+        <v>15553</v>
+      </c>
+      <c r="L15" s="21">
+        <f>'Sheet 1'!V27</f>
+        <v>26029</v>
+      </c>
+      <c r="M15" s="21">
+        <f>'Sheet 1'!X27</f>
+        <v>37726</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="str">
+        <f>'Sheet 1'!A28</f>
+        <v>Italy</v>
+      </c>
+      <c r="B16" s="21">
+        <f>'Sheet 1'!B28</f>
+        <v>534712</v>
+      </c>
+      <c r="C16" s="21">
+        <f>'Sheet 1'!D28</f>
+        <v>442940</v>
+      </c>
+      <c r="D16" s="21">
+        <f>'Sheet 1'!F28</f>
+        <v>458856</v>
+      </c>
+      <c r="E16" s="21">
+        <f>'Sheet 1'!H28</f>
+        <v>385793</v>
+      </c>
+      <c r="F16" s="21">
+        <f>'Sheet 1'!J28</f>
+        <v>350772</v>
+      </c>
+      <c r="G16" s="21">
+        <f>'Sheet 1'!L28</f>
+        <v>307454</v>
+      </c>
+      <c r="H16" s="21">
+        <f>'Sheet 1'!N28</f>
+        <v>277631</v>
+      </c>
+      <c r="I16" s="21">
+        <f>'Sheet 1'!P28</f>
+        <v>280078</v>
+      </c>
+      <c r="J16" s="21">
+        <f>'Sheet 1'!R28</f>
+        <v>300823</v>
+      </c>
+      <c r="K16" s="21">
+        <f>'Sheet 1'!T28</f>
+        <v>343440</v>
+      </c>
+      <c r="L16" s="21">
+        <f>'Sheet 1'!V28</f>
+        <v>332324</v>
+      </c>
+      <c r="M16" s="21">
+        <f>'Sheet 1'!X28</f>
+        <v>332778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="str">
+        <f>'Sheet 1'!A29</f>
+        <v>Cyprus</v>
+      </c>
+      <c r="B17" s="21">
+        <f>'Sheet 1'!B29</f>
+        <v>21060</v>
+      </c>
+      <c r="C17" s="21">
+        <f>'Sheet 1'!D29</f>
+        <v>22581</v>
+      </c>
+      <c r="D17" s="21">
+        <f>'Sheet 1'!F29</f>
+        <v>20206</v>
+      </c>
+      <c r="E17" s="21">
+        <f>'Sheet 1'!H29</f>
+        <v>23037</v>
+      </c>
+      <c r="F17" s="21">
+        <f>'Sheet 1'!J29</f>
+        <v>17476</v>
+      </c>
+      <c r="G17" s="21">
+        <f>'Sheet 1'!L29</f>
+        <v>13149</v>
+      </c>
+      <c r="H17" s="21">
+        <f>'Sheet 1'!N29</f>
+        <v>9212</v>
+      </c>
+      <c r="I17" s="21">
+        <f>'Sheet 1'!P29</f>
+        <v>15183</v>
+      </c>
+      <c r="J17" s="21">
+        <f>'Sheet 1'!R29</f>
+        <v>17391</v>
+      </c>
+      <c r="K17" s="21">
+        <f>'Sheet 1'!T29</f>
+        <v>21306</v>
+      </c>
+      <c r="L17" s="21">
+        <f>'Sheet 1'!V29</f>
+        <v>23442</v>
+      </c>
+      <c r="M17" s="21">
+        <f>'Sheet 1'!X29</f>
+        <v>26170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="str">
+        <f>'Sheet 1'!A30</f>
+        <v>Latvia</v>
+      </c>
+      <c r="B18" s="21">
+        <f>'Sheet 1'!B30</f>
+        <v>4678</v>
+      </c>
+      <c r="C18" s="21">
+        <f>'Sheet 1'!D30</f>
+        <v>3731</v>
+      </c>
+      <c r="D18" s="21">
+        <f>'Sheet 1'!F30</f>
+        <v>4011</v>
+      </c>
+      <c r="E18" s="21">
+        <f>'Sheet 1'!H30</f>
+        <v>10234</v>
+      </c>
+      <c r="F18" s="21">
+        <f>'Sheet 1'!J30</f>
+        <v>13303</v>
+      </c>
+      <c r="G18" s="21">
+        <f>'Sheet 1'!L30</f>
+        <v>8299</v>
+      </c>
+      <c r="H18" s="21">
+        <f>'Sheet 1'!N30</f>
+        <v>10365</v>
+      </c>
+      <c r="I18" s="21">
+        <f>'Sheet 1'!P30</f>
+        <v>9479</v>
+      </c>
+      <c r="J18" s="21">
+        <f>'Sheet 1'!R30</f>
+        <v>8345</v>
+      </c>
+      <c r="K18" s="21">
+        <f>'Sheet 1'!T30</f>
+        <v>9916</v>
+      </c>
+      <c r="L18" s="21">
+        <f>'Sheet 1'!V30</f>
+        <v>10909</v>
+      </c>
+      <c r="M18" s="21">
+        <f>'Sheet 1'!X30</f>
+        <v>11223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="str">
+        <f>'Sheet 1'!A31</f>
+        <v>Lithuania</v>
+      </c>
+      <c r="B19" s="21">
+        <f>'Sheet 1'!B31</f>
+        <v>9297</v>
+      </c>
+      <c r="C19" s="21">
+        <f>'Sheet 1'!D31</f>
+        <v>6487</v>
+      </c>
+      <c r="D19" s="21">
+        <f>'Sheet 1'!F31</f>
+        <v>5213</v>
+      </c>
+      <c r="E19" s="21">
+        <f>'Sheet 1'!H31</f>
+        <v>15685</v>
+      </c>
+      <c r="F19" s="21">
+        <f>'Sheet 1'!J31</f>
+        <v>19843</v>
+      </c>
+      <c r="G19" s="21">
+        <f>'Sheet 1'!L31</f>
+        <v>22011</v>
+      </c>
+      <c r="H19" s="21">
+        <f>'Sheet 1'!N31</f>
+        <v>24294</v>
+      </c>
+      <c r="I19" s="21">
+        <f>'Sheet 1'!P31</f>
+        <v>22130</v>
+      </c>
+      <c r="J19" s="21">
+        <f>'Sheet 1'!R31</f>
+        <v>20162</v>
+      </c>
+      <c r="K19" s="21">
+        <f>'Sheet 1'!T31</f>
+        <v>20368</v>
+      </c>
+      <c r="L19" s="21">
+        <f>'Sheet 1'!V31</f>
+        <v>28914</v>
+      </c>
+      <c r="M19" s="21">
+        <f>'Sheet 1'!X31</f>
+        <v>40067</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="str">
+        <f>'Sheet 1'!A32</f>
+        <v>Luxembourg</v>
+      </c>
+      <c r="B20" s="21">
+        <f>'Sheet 1'!B32</f>
+        <v>17758</v>
+      </c>
+      <c r="C20" s="21">
+        <f>'Sheet 1'!D32</f>
+        <v>15751</v>
+      </c>
+      <c r="D20" s="21">
+        <f>'Sheet 1'!F32</f>
+        <v>16962</v>
+      </c>
+      <c r="E20" s="21">
+        <f>'Sheet 1'!H32</f>
+        <v>20268</v>
+      </c>
+      <c r="F20" s="21">
+        <f>'Sheet 1'!J32</f>
+        <v>20478</v>
+      </c>
+      <c r="G20" s="21">
+        <f>'Sheet 1'!L32</f>
+        <v>21098</v>
+      </c>
+      <c r="H20" s="21">
+        <f>'Sheet 1'!N32</f>
+        <v>22332</v>
+      </c>
+      <c r="I20" s="21">
+        <f>'Sheet 1'!P32</f>
+        <v>23803</v>
+      </c>
+      <c r="J20" s="21">
+        <f>'Sheet 1'!R32</f>
+        <v>22888</v>
+      </c>
+      <c r="K20" s="21">
+        <f>'Sheet 1'!T32</f>
+        <v>24379</v>
+      </c>
+      <c r="L20" s="21">
+        <f>'Sheet 1'!V32</f>
+        <v>24644</v>
+      </c>
+      <c r="M20" s="21">
+        <f>'Sheet 1'!X32</f>
+        <v>26668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="str">
+        <f>'Sheet 1'!A33</f>
+        <v>Hungary</v>
+      </c>
+      <c r="B21" s="21">
+        <f>'Sheet 1'!B33</f>
+        <v>37652</v>
+      </c>
+      <c r="C21" s="21">
+        <f>'Sheet 1'!D33</f>
+        <v>27894</v>
+      </c>
+      <c r="D21" s="21">
+        <f>'Sheet 1'!F33</f>
+        <v>25519</v>
+      </c>
+      <c r="E21" s="21">
+        <f>'Sheet 1'!H33</f>
+        <v>28018</v>
+      </c>
+      <c r="F21" s="21">
+        <f>'Sheet 1'!J33</f>
+        <v>33702</v>
+      </c>
+      <c r="G21" s="21">
+        <f>'Sheet 1'!L33</f>
+        <v>38968</v>
+      </c>
+      <c r="H21" s="21">
+        <f>'Sheet 1'!N33</f>
+        <v>54581</v>
+      </c>
+      <c r="I21" s="21">
+        <f>'Sheet 1'!P33</f>
+        <v>58344</v>
+      </c>
+      <c r="J21" s="21">
+        <f>'Sheet 1'!R33</f>
+        <v>53618</v>
+      </c>
+      <c r="K21" s="21">
+        <f>'Sheet 1'!T33</f>
+        <v>68070</v>
+      </c>
+      <c r="L21" s="21">
+        <f>'Sheet 1'!V33</f>
+        <v>82937</v>
+      </c>
+      <c r="M21" s="21">
+        <f>'Sheet 1'!X33</f>
+        <v>88581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="str">
+        <f>'Sheet 1'!A34</f>
+        <v>Malta</v>
+      </c>
+      <c r="B22" s="21">
+        <f>'Sheet 1'!B34</f>
+        <v>6043</v>
+      </c>
+      <c r="C22" s="21">
+        <f>'Sheet 1'!D34</f>
+        <v>6161</v>
+      </c>
+      <c r="D22" s="21">
+        <f>'Sheet 1'!F34</f>
+        <v>4275</v>
+      </c>
+      <c r="E22" s="21">
+        <f>'Sheet 1'!H34</f>
+        <v>5465</v>
+      </c>
+      <c r="F22" s="21">
+        <f>'Sheet 1'!J34</f>
+        <v>8256</v>
+      </c>
+      <c r="G22" s="21">
+        <f>'Sheet 1'!L34</f>
+        <v>10897</v>
+      </c>
+      <c r="H22" s="21">
+        <f>'Sheet 1'!N34</f>
+        <v>14454</v>
+      </c>
+      <c r="I22" s="21">
+        <f>'Sheet 1'!P34</f>
+        <v>16936</v>
+      </c>
+      <c r="J22" s="21">
+        <f>'Sheet 1'!R34</f>
+        <v>17051</v>
+      </c>
+      <c r="K22" s="21">
+        <f>'Sheet 1'!T34</f>
+        <v>21676</v>
+      </c>
+      <c r="L22" s="21">
+        <f>'Sheet 1'!V34</f>
+        <v>26444</v>
+      </c>
+      <c r="M22" s="21">
+        <f>'Sheet 1'!X34</f>
+        <v>28341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="str">
+        <f>'Sheet 1'!A35</f>
+        <v>Netherlands</v>
+      </c>
+      <c r="B23" s="21">
+        <f>'Sheet 1'!B35</f>
+        <v>143516</v>
+      </c>
+      <c r="C23" s="21">
+        <f>'Sheet 1'!D35</f>
+        <v>122917</v>
+      </c>
+      <c r="D23" s="21">
+        <f>'Sheet 1'!F35</f>
+        <v>126776</v>
+      </c>
+      <c r="E23" s="21">
+        <f>'Sheet 1'!H35</f>
+        <v>130118</v>
+      </c>
+      <c r="F23" s="21">
+        <f>'Sheet 1'!J35</f>
+        <v>124566</v>
+      </c>
+      <c r="G23" s="21">
+        <f>'Sheet 1'!L35</f>
+        <v>129428</v>
+      </c>
+      <c r="H23" s="21">
+        <f>'Sheet 1'!N35</f>
+        <v>145323</v>
+      </c>
+      <c r="I23" s="21">
+        <f>'Sheet 1'!P35</f>
+        <v>166872</v>
+      </c>
+      <c r="J23" s="21">
+        <f>'Sheet 1'!R35</f>
+        <v>189232</v>
+      </c>
+      <c r="K23" s="21">
+        <f>'Sheet 1'!T35</f>
+        <v>189646</v>
+      </c>
+      <c r="L23" s="21">
+        <f>'Sheet 1'!V35</f>
+        <v>194306</v>
+      </c>
+      <c r="M23" s="21">
+        <f>'Sheet 1'!X35</f>
+        <v>215756</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="str">
+        <f>'Sheet 1'!A36</f>
+        <v>Austria</v>
+      </c>
+      <c r="B24" s="21">
+        <f>'Sheet 1'!B36</f>
+        <v>73772</v>
+      </c>
+      <c r="C24" s="21">
+        <f>'Sheet 1'!D36</f>
+        <v>69295</v>
+      </c>
+      <c r="D24" s="21">
+        <f>'Sheet 1'!F36</f>
+        <v>70978</v>
+      </c>
+      <c r="E24" s="21">
+        <f>'Sheet 1'!H36</f>
+        <v>82230</v>
+      </c>
+      <c r="F24" s="21">
+        <f>'Sheet 1'!J36</f>
+        <v>91557</v>
+      </c>
+      <c r="G24" s="21">
+        <f>'Sheet 1'!L36</f>
+        <v>101866</v>
+      </c>
+      <c r="H24" s="21">
+        <f>'Sheet 1'!N36</f>
+        <v>116262</v>
+      </c>
+      <c r="I24" s="21">
+        <f>'Sheet 1'!P36</f>
+        <v>166323</v>
+      </c>
+      <c r="J24" s="21">
+        <f>'Sheet 1'!R36</f>
+        <v>129509</v>
+      </c>
+      <c r="K24" s="21">
+        <f>'Sheet 1'!T36</f>
+        <v>111801</v>
+      </c>
+      <c r="L24" s="21">
+        <f>'Sheet 1'!V36</f>
+        <v>105633</v>
+      </c>
+      <c r="M24" s="21">
+        <f>'Sheet 1'!X36</f>
+        <v>109167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="str">
+        <f>'Sheet 1'!A37</f>
+        <v>Poland</v>
+      </c>
+      <c r="B25" s="21">
+        <f>'Sheet 1'!B37</f>
+        <v>15275</v>
+      </c>
+      <c r="C25" s="21">
+        <f>'Sheet 1'!D37</f>
+        <v>189166</v>
+      </c>
+      <c r="D25" s="21">
+        <f>'Sheet 1'!F37</f>
+        <v>155131</v>
+      </c>
+      <c r="E25" s="21">
+        <f>'Sheet 1'!H37</f>
+        <v>157059</v>
+      </c>
+      <c r="F25" s="21">
+        <f>'Sheet 1'!J37</f>
+        <v>217546</v>
+      </c>
+      <c r="G25" s="21">
+        <f>'Sheet 1'!L37</f>
+        <v>220311</v>
+      </c>
+      <c r="H25" s="21">
+        <f>'Sheet 1'!N37</f>
+        <v>222275</v>
+      </c>
+      <c r="I25" s="21">
+        <f>'Sheet 1'!P37</f>
+        <v>218147</v>
+      </c>
+      <c r="J25" s="21">
+        <f>'Sheet 1'!R37</f>
+        <v>208302</v>
+      </c>
+      <c r="K25" s="21">
+        <f>'Sheet 1'!T37</f>
+        <v>209353</v>
+      </c>
+      <c r="L25" s="21">
+        <f>'Sheet 1'!V37</f>
+        <v>214083</v>
+      </c>
+      <c r="M25" s="21">
+        <f>'Sheet 1'!X37</f>
+        <v>226649</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="str">
+        <f>'Sheet 1'!A38</f>
+        <v>Portugal</v>
+      </c>
+      <c r="B26" s="21">
+        <f>'Sheet 1'!B38</f>
+        <v>29718</v>
+      </c>
+      <c r="C26" s="21">
+        <f>'Sheet 1'!D38</f>
+        <v>32307</v>
+      </c>
+      <c r="D26" s="21">
+        <f>'Sheet 1'!F38</f>
+        <v>27575</v>
+      </c>
+      <c r="E26" s="21">
+        <f>'Sheet 1'!H38</f>
+        <v>19667</v>
+      </c>
+      <c r="F26" s="21">
+        <f>'Sheet 1'!J38</f>
+        <v>14606</v>
+      </c>
+      <c r="G26" s="21">
+        <f>'Sheet 1'!L38</f>
+        <v>17554</v>
+      </c>
+      <c r="H26" s="21">
+        <f>'Sheet 1'!N38</f>
+        <v>19516</v>
+      </c>
+      <c r="I26" s="21">
+        <f>'Sheet 1'!P38</f>
+        <v>29896</v>
+      </c>
+      <c r="J26" s="21">
+        <f>'Sheet 1'!R38</f>
+        <v>29925</v>
+      </c>
+      <c r="K26" s="21">
+        <f>'Sheet 1'!T38</f>
+        <v>36639</v>
+      </c>
+      <c r="L26" s="21">
+        <f>'Sheet 1'!V38</f>
+        <v>43170</v>
+      </c>
+      <c r="M26" s="21">
+        <f>'Sheet 1'!X38</f>
+        <v>72725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="str">
+        <f>'Sheet 1'!A39</f>
+        <v>Romania</v>
+      </c>
+      <c r="B27" s="21">
+        <f>'Sheet 1'!B39</f>
+        <v>138929</v>
+      </c>
+      <c r="C27" s="21">
+        <f>'Sheet 1'!D39</f>
+        <v>135844</v>
+      </c>
+      <c r="D27" s="21">
+        <f>'Sheet 1'!F39</f>
+        <v>149885</v>
+      </c>
+      <c r="E27" s="21">
+        <f>'Sheet 1'!H39</f>
+        <v>147685</v>
+      </c>
+      <c r="F27" s="21">
+        <f>'Sheet 1'!J39</f>
+        <v>167266</v>
+      </c>
+      <c r="G27" s="21">
+        <f>'Sheet 1'!L39</f>
+        <v>153646</v>
+      </c>
+      <c r="H27" s="21">
+        <f>'Sheet 1'!N39</f>
+        <v>136035</v>
+      </c>
+      <c r="I27" s="21">
+        <f>'Sheet 1'!P39</f>
+        <v>132795</v>
+      </c>
+      <c r="J27" s="21">
+        <f>'Sheet 1'!R39</f>
+        <v>137455</v>
+      </c>
+      <c r="K27" s="21">
+        <f>'Sheet 1'!T39</f>
+        <v>177435</v>
+      </c>
+      <c r="L27" s="21">
+        <f>'Sheet 1'!V39</f>
+        <v>172578</v>
+      </c>
+      <c r="M27" s="21">
+        <f>'Sheet 1'!X39</f>
+        <v>202422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="str">
+        <f>'Sheet 1'!A40</f>
+        <v>Slovenia</v>
+      </c>
+      <c r="B28" s="21">
+        <f>'Sheet 1'!B40</f>
+        <v>30693</v>
+      </c>
+      <c r="C28" s="21">
+        <f>'Sheet 1'!D40</f>
+        <v>30296</v>
+      </c>
+      <c r="D28" s="21">
+        <f>'Sheet 1'!F40</f>
+        <v>15416</v>
+      </c>
+      <c r="E28" s="21">
+        <f>'Sheet 1'!H40</f>
+        <v>14083</v>
+      </c>
+      <c r="F28" s="21">
+        <f>'Sheet 1'!J40</f>
+        <v>15022</v>
+      </c>
+      <c r="G28" s="21">
+        <f>'Sheet 1'!L40</f>
+        <v>13871</v>
+      </c>
+      <c r="H28" s="21">
+        <f>'Sheet 1'!N40</f>
+        <v>13846</v>
+      </c>
+      <c r="I28" s="21">
+        <f>'Sheet 1'!P40</f>
+        <v>15420</v>
+      </c>
+      <c r="J28" s="21">
+        <f>'Sheet 1'!R40</f>
+        <v>16623</v>
+      </c>
+      <c r="K28" s="21">
+        <f>'Sheet 1'!T40</f>
+        <v>18808</v>
+      </c>
+      <c r="L28" s="21">
+        <f>'Sheet 1'!V40</f>
+        <v>28455</v>
+      </c>
+      <c r="M28" s="21">
+        <f>'Sheet 1'!X40</f>
+        <v>31319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="str">
+        <f>'Sheet 1'!A41</f>
+        <v>Slovakia</v>
+      </c>
+      <c r="B29" s="21">
+        <f>'Sheet 1'!B41</f>
+        <v>8765</v>
+      </c>
+      <c r="C29" s="21">
+        <f>'Sheet 1'!D41</f>
+        <v>6346</v>
+      </c>
+      <c r="D29" s="21">
+        <f>'Sheet 1'!F41</f>
+        <v>5272</v>
+      </c>
+      <c r="E29" s="21">
+        <f>'Sheet 1'!H41</f>
+        <v>4829</v>
+      </c>
+      <c r="F29" s="21">
+        <f>'Sheet 1'!J41</f>
+        <v>5419</v>
+      </c>
+      <c r="G29" s="21">
+        <f>'Sheet 1'!L41</f>
+        <v>5149</v>
+      </c>
+      <c r="H29" s="21">
+        <f>'Sheet 1'!N41</f>
+        <v>5357</v>
+      </c>
+      <c r="I29" s="21">
+        <f>'Sheet 1'!P41</f>
+        <v>6997</v>
+      </c>
+      <c r="J29" s="21">
+        <f>'Sheet 1'!R41</f>
+        <v>7686</v>
+      </c>
+      <c r="K29" s="21">
+        <f>'Sheet 1'!T41</f>
+        <v>7188</v>
+      </c>
+      <c r="L29" s="21">
+        <f>'Sheet 1'!V41</f>
+        <v>7253</v>
+      </c>
+      <c r="M29" s="21">
+        <f>'Sheet 1'!X41</f>
+        <v>7016</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="str">
+        <f>'Sheet 1'!A42</f>
+        <v>Finland</v>
+      </c>
+      <c r="B30" s="21">
+        <f>'Sheet 1'!B42</f>
+        <v>29114</v>
+      </c>
+      <c r="C30" s="21">
+        <f>'Sheet 1'!D42</f>
+        <v>26699</v>
+      </c>
+      <c r="D30" s="21">
+        <f>'Sheet 1'!F42</f>
+        <v>25636</v>
+      </c>
+      <c r="E30" s="21">
+        <f>'Sheet 1'!H42</f>
+        <v>29481</v>
+      </c>
+      <c r="F30" s="21">
+        <f>'Sheet 1'!J42</f>
+        <v>31278</v>
+      </c>
+      <c r="G30" s="21">
+        <f>'Sheet 1'!L42</f>
+        <v>31941</v>
+      </c>
+      <c r="H30" s="21">
+        <f>'Sheet 1'!N42</f>
+        <v>31507</v>
+      </c>
+      <c r="I30" s="21">
+        <f>'Sheet 1'!P42</f>
+        <v>28746</v>
+      </c>
+      <c r="J30" s="21">
+        <f>'Sheet 1'!R42</f>
+        <v>34905</v>
+      </c>
+      <c r="K30" s="21">
+        <f>'Sheet 1'!T42</f>
+        <v>31797</v>
+      </c>
+      <c r="L30" s="21">
+        <f>'Sheet 1'!V42</f>
+        <v>31106</v>
+      </c>
+      <c r="M30" s="21">
+        <f>'Sheet 1'!X42</f>
+        <v>32758</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="str">
+        <f>'Sheet 1'!A43</f>
+        <v>Sweden</v>
+      </c>
+      <c r="B31" s="21">
+        <f>'Sheet 1'!B43</f>
+        <v>101171</v>
+      </c>
+      <c r="C31" s="21">
+        <f>'Sheet 1'!D43</f>
+        <v>102280</v>
+      </c>
+      <c r="D31" s="21">
+        <f>'Sheet 1'!F43</f>
+        <v>98801</v>
+      </c>
+      <c r="E31" s="21">
+        <f>'Sheet 1'!H43</f>
+        <v>96467</v>
+      </c>
+      <c r="F31" s="21">
+        <f>'Sheet 1'!J43</f>
+        <v>103059</v>
+      </c>
+      <c r="G31" s="21">
+        <f>'Sheet 1'!L43</f>
+        <v>115845</v>
+      </c>
+      <c r="H31" s="21">
+        <f>'Sheet 1'!N43</f>
+        <v>126966</v>
+      </c>
+      <c r="I31" s="21">
+        <f>'Sheet 1'!P43</f>
+        <v>134240</v>
+      </c>
+      <c r="J31" s="21">
+        <f>'Sheet 1'!R43</f>
+        <v>163005</v>
+      </c>
+      <c r="K31" s="21">
+        <f>'Sheet 1'!T43</f>
+        <v>144489</v>
+      </c>
+      <c r="L31" s="21">
+        <f>'Sheet 1'!V43</f>
+        <v>132602</v>
+      </c>
+      <c r="M31" s="21">
+        <f>'Sheet 1'!X43</f>
+        <v>115805</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="str">
+        <f>'Sheet 1'!A44</f>
+        <v>Iceland</v>
+      </c>
+      <c r="B32" s="21">
+        <f>'Sheet 1'!B44</f>
+        <v>10288</v>
+      </c>
+      <c r="C32" s="21">
+        <f>'Sheet 1'!D44</f>
+        <v>3921</v>
+      </c>
+      <c r="D32" s="21">
+        <f>'Sheet 1'!F44</f>
+        <v>3948</v>
+      </c>
+      <c r="E32" s="21">
+        <f>'Sheet 1'!H44</f>
+        <v>4073</v>
+      </c>
+      <c r="F32" s="21">
+        <f>'Sheet 1'!J44</f>
+        <v>4960</v>
+      </c>
+      <c r="G32" s="21">
+        <f>'Sheet 1'!L44</f>
+        <v>6406</v>
+      </c>
+      <c r="H32" s="21">
+        <f>'Sheet 1'!N44</f>
+        <v>5368</v>
+      </c>
+      <c r="I32" s="21">
+        <f>'Sheet 1'!P44</f>
+        <v>5635</v>
+      </c>
+      <c r="J32" s="21">
+        <f>'Sheet 1'!R44</f>
+        <v>8710</v>
+      </c>
+      <c r="K32" s="21">
+        <f>'Sheet 1'!T44</f>
+        <v>12116</v>
+      </c>
+      <c r="L32" s="21">
+        <f>'Sheet 1'!V44</f>
+        <v>11830</v>
+      </c>
+      <c r="M32" s="21">
+        <f>'Sheet 1'!X44</f>
+        <v>9872</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="str">
+        <f>'Sheet 1'!A45</f>
+        <v>Liechtenstein</v>
+      </c>
+      <c r="B33" s="21">
+        <f>'Sheet 1'!B45</f>
+        <v>578</v>
+      </c>
+      <c r="C33" s="21">
+        <f>'Sheet 1'!D45</f>
+        <v>584</v>
+      </c>
+      <c r="D33" s="21">
+        <f>'Sheet 1'!F45</f>
+        <v>591</v>
+      </c>
+      <c r="E33" s="21">
+        <f>'Sheet 1'!H45</f>
+        <v>650</v>
+      </c>
+      <c r="F33" s="21">
+        <f>'Sheet 1'!J45</f>
+        <v>671</v>
+      </c>
+      <c r="G33" s="21">
+        <f>'Sheet 1'!L45</f>
+        <v>696</v>
+      </c>
+      <c r="H33" s="21">
+        <f>'Sheet 1'!N45</f>
+        <v>615</v>
+      </c>
+      <c r="I33" s="21">
+        <f>'Sheet 1'!P45</f>
+        <v>657</v>
+      </c>
+      <c r="J33" s="21">
+        <f>'Sheet 1'!R45</f>
+        <v>607</v>
+      </c>
+      <c r="K33" s="21">
+        <f>'Sheet 1'!T45</f>
+        <v>645</v>
+      </c>
+      <c r="L33" s="21">
+        <f>'Sheet 1'!V45</f>
+        <v>649</v>
+      </c>
+      <c r="M33" s="21">
+        <f>'Sheet 1'!X45</f>
+        <v>727</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="str">
+        <f>'Sheet 1'!A46</f>
+        <v>Norway</v>
+      </c>
+      <c r="B34" s="21">
+        <f>'Sheet 1'!B46</f>
+        <v>58123</v>
+      </c>
+      <c r="C34" s="21">
+        <f>'Sheet 1'!D46</f>
+        <v>55953</v>
+      </c>
+      <c r="D34" s="21">
+        <f>'Sheet 1'!F46</f>
+        <v>69214</v>
+      </c>
+      <c r="E34" s="21">
+        <f>'Sheet 1'!H46</f>
+        <v>70337</v>
+      </c>
+      <c r="F34" s="21">
+        <f>'Sheet 1'!J46</f>
+        <v>69908</v>
+      </c>
+      <c r="G34" s="21">
+        <f>'Sheet 1'!L46</f>
+        <v>68313</v>
+      </c>
+      <c r="H34" s="21">
+        <f>'Sheet 1'!N46</f>
+        <v>66903</v>
+      </c>
+      <c r="I34" s="21">
+        <f>'Sheet 1'!P46</f>
+        <v>60816</v>
+      </c>
+      <c r="J34" s="21">
+        <f>'Sheet 1'!R46</f>
+        <v>61460</v>
+      </c>
+      <c r="K34" s="21">
+        <f>'Sheet 1'!T46</f>
+        <v>53351</v>
+      </c>
+      <c r="L34" s="21">
+        <f>'Sheet 1'!V46</f>
+        <v>47864</v>
+      </c>
+      <c r="M34" s="21">
+        <f>'Sheet 1'!X46</f>
+        <v>48680</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="str">
+        <f>'Sheet 1'!A47</f>
+        <v>Switzerland</v>
+      </c>
+      <c r="B35" s="21">
+        <f>'Sheet 1'!B47</f>
+        <v>184297</v>
+      </c>
+      <c r="C35" s="21">
+        <f>'Sheet 1'!D47</f>
+        <v>160623</v>
+      </c>
+      <c r="D35" s="21">
+        <f>'Sheet 1'!F47</f>
+        <v>161778</v>
+      </c>
+      <c r="E35" s="21">
+        <f>'Sheet 1'!H47</f>
+        <v>148799</v>
+      </c>
+      <c r="F35" s="21">
+        <f>'Sheet 1'!J47</f>
+        <v>149051</v>
+      </c>
+      <c r="G35" s="21">
+        <f>'Sheet 1'!L47</f>
+        <v>160157</v>
+      </c>
+      <c r="H35" s="21">
+        <f>'Sheet 1'!N47</f>
+        <v>156282</v>
+      </c>
+      <c r="I35" s="21">
+        <f>'Sheet 1'!P47</f>
+        <v>153627</v>
+      </c>
+      <c r="J35" s="21">
+        <f>'Sheet 1'!R47</f>
+        <v>149305</v>
+      </c>
+      <c r="K35" s="21">
+        <f>'Sheet 1'!T47</f>
+        <v>143377</v>
+      </c>
+      <c r="L35" s="21">
+        <f>'Sheet 1'!V47</f>
+        <v>144857</v>
+      </c>
+      <c r="M35" s="21">
+        <f>'Sheet 1'!X47</f>
+        <v>145129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="str">
+        <f>'Sheet 1'!A48</f>
+        <v>United Kingdom</v>
+      </c>
+      <c r="B36" s="21">
+        <f>'Sheet 1'!B48</f>
+        <v>590242</v>
+      </c>
+      <c r="C36" s="21">
+        <f>'Sheet 1'!D48</f>
+        <v>566514</v>
+      </c>
+      <c r="D36" s="21">
+        <f>'Sheet 1'!F48</f>
+        <v>590950</v>
+      </c>
+      <c r="E36" s="21">
+        <f>'Sheet 1'!H48</f>
+        <v>566044</v>
+      </c>
+      <c r="F36" s="21">
+        <f>'Sheet 1'!J48</f>
+        <v>498040</v>
+      </c>
+      <c r="G36" s="21">
+        <f>'Sheet 1'!L48</f>
+        <v>526046</v>
+      </c>
+      <c r="H36" s="21">
+        <f>'Sheet 1'!N48</f>
+        <v>631991</v>
+      </c>
+      <c r="I36" s="21">
+        <f>'Sheet 1'!P48</f>
+        <v>631452</v>
+      </c>
+      <c r="J36" s="21">
+        <f>'Sheet 1'!R48</f>
+        <v>588993</v>
+      </c>
+      <c r="K36" s="21">
+        <f>'Sheet 1'!T48</f>
+        <v>644209</v>
+      </c>
+      <c r="L36" s="21">
+        <f>'Sheet 1'!V48</f>
+        <v>603953</v>
+      </c>
+      <c r="M36" s="21">
+        <f>'Sheet 1'!X48</f>
+        <v>680906</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="str">
+        <f>'Sheet 1'!A49</f>
+        <v>Montenegro</v>
+      </c>
+      <c r="B37" s="21" t="str">
+        <f>'Sheet 1'!B49</f>
+        <v>:</v>
+      </c>
+      <c r="C37" s="21" t="str">
+        <f>'Sheet 1'!D49</f>
+        <v>:</v>
+      </c>
+      <c r="D37" s="21" t="str">
+        <f>'Sheet 1'!F49</f>
+        <v>:</v>
+      </c>
+      <c r="E37" s="21" t="str">
+        <f>'Sheet 1'!H49</f>
+        <v>:</v>
+      </c>
+      <c r="F37" s="21" t="str">
+        <f>'Sheet 1'!J49</f>
+        <v>:</v>
+      </c>
+      <c r="G37" s="21" t="str">
+        <f>'Sheet 1'!L49</f>
+        <v>:</v>
+      </c>
+      <c r="H37" s="21" t="str">
+        <f>'Sheet 1'!N49</f>
+        <v>:</v>
+      </c>
+      <c r="I37" s="21" t="str">
+        <f>'Sheet 1'!P49</f>
+        <v>:</v>
+      </c>
+      <c r="J37" s="21" t="str">
+        <f>'Sheet 1'!R49</f>
+        <v>:</v>
+      </c>
+      <c r="K37" s="21" t="str">
+        <f>'Sheet 1'!T49</f>
+        <v>:</v>
+      </c>
+      <c r="L37" s="21" t="str">
+        <f>'Sheet 1'!V49</f>
+        <v>:</v>
+      </c>
+      <c r="M37" s="21" t="str">
+        <f>'Sheet 1'!X49</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="str">
+        <f>'Sheet 1'!A50</f>
+        <v>North Macedonia</v>
+      </c>
+      <c r="B38" s="21">
+        <f>'Sheet 1'!B50</f>
+        <v>1052</v>
+      </c>
+      <c r="C38" s="21">
+        <f>'Sheet 1'!D50</f>
+        <v>857</v>
+      </c>
+      <c r="D38" s="21">
+        <f>'Sheet 1'!F50</f>
+        <v>1359</v>
+      </c>
+      <c r="E38" s="21">
+        <f>'Sheet 1'!H50</f>
+        <v>1464</v>
+      </c>
+      <c r="F38" s="21">
+        <f>'Sheet 1'!J50</f>
+        <v>1715</v>
+      </c>
+      <c r="G38" s="21">
+        <f>'Sheet 1'!L50</f>
+        <v>2050</v>
+      </c>
+      <c r="H38" s="21">
+        <f>'Sheet 1'!N50</f>
+        <v>1935</v>
+      </c>
+      <c r="I38" s="21">
+        <f>'Sheet 1'!P50</f>
+        <v>1741</v>
+      </c>
+      <c r="J38" s="21">
+        <f>'Sheet 1'!R50</f>
+        <v>2262</v>
+      </c>
+      <c r="K38" s="21">
+        <f>'Sheet 1'!T50</f>
+        <v>2064</v>
+      </c>
+      <c r="L38" s="21">
+        <f>'Sheet 1'!V50</f>
+        <v>2053</v>
+      </c>
+      <c r="M38" s="21">
+        <f>'Sheet 1'!X50</f>
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="str">
+        <f>'Sheet 1'!A51</f>
+        <v>Albania</v>
+      </c>
+      <c r="B39" s="21" t="str">
+        <f>'Sheet 1'!B51</f>
+        <v>:</v>
+      </c>
+      <c r="C39" s="21" t="str">
+        <f>'Sheet 1'!D51</f>
+        <v>:</v>
+      </c>
+      <c r="D39" s="21" t="str">
+        <f>'Sheet 1'!F51</f>
+        <v>:</v>
+      </c>
+      <c r="E39" s="21" t="str">
+        <f>'Sheet 1'!H51</f>
+        <v>:</v>
+      </c>
+      <c r="F39" s="21" t="str">
+        <f>'Sheet 1'!J51</f>
+        <v>:</v>
+      </c>
+      <c r="G39" s="21" t="str">
+        <f>'Sheet 1'!L51</f>
+        <v>:</v>
+      </c>
+      <c r="H39" s="21" t="str">
+        <f>'Sheet 1'!N51</f>
+        <v>:</v>
+      </c>
+      <c r="I39" s="21" t="str">
+        <f>'Sheet 1'!P51</f>
+        <v>:</v>
+      </c>
+      <c r="J39" s="21" t="str">
+        <f>'Sheet 1'!R51</f>
+        <v>:</v>
+      </c>
+      <c r="K39" s="21" t="str">
+        <f>'Sheet 1'!T51</f>
+        <v>:</v>
+      </c>
+      <c r="L39" s="21" t="str">
+        <f>'Sheet 1'!V51</f>
+        <v>:</v>
+      </c>
+      <c r="M39" s="21" t="str">
+        <f>'Sheet 1'!X51</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="str">
+        <f>'Sheet 1'!A52</f>
+        <v>Serbia</v>
+      </c>
+      <c r="B40" s="21" t="str">
+        <f>'Sheet 1'!B52</f>
+        <v>:</v>
+      </c>
+      <c r="C40" s="21" t="str">
+        <f>'Sheet 1'!D52</f>
+        <v>:</v>
+      </c>
+      <c r="D40" s="21" t="str">
+        <f>'Sheet 1'!F52</f>
+        <v>:</v>
+      </c>
+      <c r="E40" s="21" t="str">
+        <f>'Sheet 1'!H52</f>
+        <v>:</v>
+      </c>
+      <c r="F40" s="21" t="str">
+        <f>'Sheet 1'!J52</f>
+        <v>:</v>
+      </c>
+      <c r="G40" s="21" t="str">
+        <f>'Sheet 1'!L52</f>
+        <v>:</v>
+      </c>
+      <c r="H40" s="21" t="str">
+        <f>'Sheet 1'!N52</f>
+        <v>:</v>
+      </c>
+      <c r="I40" s="21" t="str">
+        <f>'Sheet 1'!P52</f>
+        <v>:</v>
+      </c>
+      <c r="J40" s="21" t="str">
+        <f>'Sheet 1'!R52</f>
+        <v>:</v>
+      </c>
+      <c r="K40" s="21" t="str">
+        <f>'Sheet 1'!T52</f>
+        <v>:</v>
+      </c>
+      <c r="L40" s="21" t="str">
+        <f>'Sheet 1'!V52</f>
+        <v>:</v>
+      </c>
+      <c r="M40" s="21" t="str">
+        <f>'Sheet 1'!X52</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="str">
+        <f>'Sheet 1'!A53</f>
+        <v>Turkey</v>
+      </c>
+      <c r="B41" s="21" t="str">
+        <f>'Sheet 1'!B53</f>
+        <v>:</v>
+      </c>
+      <c r="C41" s="21" t="str">
+        <f>'Sheet 1'!D53</f>
+        <v>:</v>
+      </c>
+      <c r="D41" s="21" t="str">
+        <f>'Sheet 1'!F53</f>
+        <v>:</v>
+      </c>
+      <c r="E41" s="21" t="str">
+        <f>'Sheet 1'!H53</f>
+        <v>:</v>
+      </c>
+      <c r="F41" s="21" t="str">
+        <f>'Sheet 1'!J53</f>
+        <v>:</v>
+      </c>
+      <c r="G41" s="21" t="str">
+        <f>'Sheet 1'!L53</f>
+        <v>:</v>
+      </c>
+      <c r="H41" s="21" t="str">
+        <f>'Sheet 1'!N53</f>
+        <v>:</v>
+      </c>
+      <c r="I41" s="21" t="str">
+        <f>'Sheet 1'!P53</f>
+        <v>:</v>
+      </c>
+      <c r="J41" s="21" t="str">
+        <f>'Sheet 1'!R53</f>
+        <v>:</v>
+      </c>
+      <c r="K41" s="21" t="str">
+        <f>'Sheet 1'!T53</f>
+        <v>:</v>
+      </c>
+      <c r="L41" s="21" t="str">
+        <f>'Sheet 1'!V53</f>
+        <v>:</v>
+      </c>
+      <c r="M41" s="21" t="str">
+        <f>'Sheet 1'!X53</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="str">
+        <f>'Sheet 1'!A54</f>
+        <v>Belarus</v>
+      </c>
+      <c r="B42" s="21" t="str">
+        <f>'Sheet 1'!B54</f>
+        <v>:</v>
+      </c>
+      <c r="C42" s="21" t="str">
+        <f>'Sheet 1'!D54</f>
+        <v>:</v>
+      </c>
+      <c r="D42" s="21" t="str">
+        <f>'Sheet 1'!F54</f>
+        <v>:</v>
+      </c>
+      <c r="E42" s="21" t="str">
+        <f>'Sheet 1'!H54</f>
+        <v>:</v>
+      </c>
+      <c r="F42" s="21" t="str">
+        <f>'Sheet 1'!J54</f>
+        <v>:</v>
+      </c>
+      <c r="G42" s="21" t="str">
+        <f>'Sheet 1'!L54</f>
+        <v>:</v>
+      </c>
+      <c r="H42" s="21" t="str">
+        <f>'Sheet 1'!N54</f>
+        <v>:</v>
+      </c>
+      <c r="I42" s="21" t="str">
+        <f>'Sheet 1'!P54</f>
+        <v>:</v>
+      </c>
+      <c r="J42" s="21" t="str">
+        <f>'Sheet 1'!R54</f>
+        <v>:</v>
+      </c>
+      <c r="K42" s="21" t="str">
+        <f>'Sheet 1'!T54</f>
+        <v>:</v>
+      </c>
+      <c r="L42" s="21" t="str">
+        <f>'Sheet 1'!V54</f>
+        <v>:</v>
+      </c>
+      <c r="M42" s="21" t="str">
+        <f>'Sheet 1'!X54</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="str">
+        <f>'Sheet 1'!A55</f>
+        <v>Bosnia and Herzegovina</v>
+      </c>
+      <c r="B43" s="21" t="str">
+        <f>'Sheet 1'!B55</f>
+        <v>:</v>
+      </c>
+      <c r="C43" s="21" t="str">
+        <f>'Sheet 1'!D55</f>
+        <v>:</v>
+      </c>
+      <c r="D43" s="21" t="str">
+        <f>'Sheet 1'!F55</f>
+        <v>:</v>
+      </c>
+      <c r="E43" s="21" t="str">
+        <f>'Sheet 1'!H55</f>
+        <v>:</v>
+      </c>
+      <c r="F43" s="21" t="str">
+        <f>'Sheet 1'!J55</f>
+        <v>:</v>
+      </c>
+      <c r="G43" s="21" t="str">
+        <f>'Sheet 1'!L55</f>
+        <v>:</v>
+      </c>
+      <c r="H43" s="21" t="str">
+        <f>'Sheet 1'!N55</f>
+        <v>:</v>
+      </c>
+      <c r="I43" s="21" t="str">
+        <f>'Sheet 1'!P55</f>
+        <v>:</v>
+      </c>
+      <c r="J43" s="21" t="str">
+        <f>'Sheet 1'!R55</f>
+        <v>:</v>
+      </c>
+      <c r="K43" s="21" t="str">
+        <f>'Sheet 1'!T55</f>
+        <v>:</v>
+      </c>
+      <c r="L43" s="21" t="str">
+        <f>'Sheet 1'!V55</f>
+        <v>:</v>
+      </c>
+      <c r="M43" s="21" t="str">
+        <f>'Sheet 1'!X55</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="str">
+        <f>'Sheet 1'!A56</f>
+        <v>Moldova</v>
+      </c>
+      <c r="B44" s="21" t="str">
+        <f>'Sheet 1'!B56</f>
+        <v>:</v>
+      </c>
+      <c r="C44" s="21" t="str">
+        <f>'Sheet 1'!D56</f>
+        <v>:</v>
+      </c>
+      <c r="D44" s="21" t="str">
+        <f>'Sheet 1'!F56</f>
+        <v>:</v>
+      </c>
+      <c r="E44" s="21" t="str">
+        <f>'Sheet 1'!H56</f>
+        <v>:</v>
+      </c>
+      <c r="F44" s="21" t="str">
+        <f>'Sheet 1'!J56</f>
+        <v>:</v>
+      </c>
+      <c r="G44" s="21" t="str">
+        <f>'Sheet 1'!L56</f>
+        <v>:</v>
+      </c>
+      <c r="H44" s="21" t="str">
+        <f>'Sheet 1'!N56</f>
+        <v>:</v>
+      </c>
+      <c r="I44" s="21" t="str">
+        <f>'Sheet 1'!P56</f>
+        <v>:</v>
+      </c>
+      <c r="J44" s="21" t="str">
+        <f>'Sheet 1'!R56</f>
+        <v>:</v>
+      </c>
+      <c r="K44" s="21" t="str">
+        <f>'Sheet 1'!T56</f>
+        <v>:</v>
+      </c>
+      <c r="L44" s="21" t="str">
+        <f>'Sheet 1'!V56</f>
+        <v>:</v>
+      </c>
+      <c r="M44" s="21" t="str">
+        <f>'Sheet 1'!X56</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="str">
+        <f>'Sheet 1'!A57</f>
+        <v>Russia</v>
+      </c>
+      <c r="B45" s="21" t="str">
+        <f>'Sheet 1'!B57</f>
+        <v>:</v>
+      </c>
+      <c r="C45" s="21" t="str">
+        <f>'Sheet 1'!D57</f>
+        <v>:</v>
+      </c>
+      <c r="D45" s="21" t="str">
+        <f>'Sheet 1'!F57</f>
+        <v>:</v>
+      </c>
+      <c r="E45" s="21" t="str">
+        <f>'Sheet 1'!H57</f>
+        <v>:</v>
+      </c>
+      <c r="F45" s="21" t="str">
+        <f>'Sheet 1'!J57</f>
+        <v>:</v>
+      </c>
+      <c r="G45" s="21" t="str">
+        <f>'Sheet 1'!L57</f>
+        <v>:</v>
+      </c>
+      <c r="H45" s="21" t="str">
+        <f>'Sheet 1'!N57</f>
+        <v>:</v>
+      </c>
+      <c r="I45" s="21" t="str">
+        <f>'Sheet 1'!P57</f>
+        <v>:</v>
+      </c>
+      <c r="J45" s="21" t="str">
+        <f>'Sheet 1'!R57</f>
+        <v>:</v>
+      </c>
+      <c r="K45" s="21" t="str">
+        <f>'Sheet 1'!T57</f>
+        <v>:</v>
+      </c>
+      <c r="L45" s="21" t="str">
+        <f>'Sheet 1'!V57</f>
+        <v>:</v>
+      </c>
+      <c r="M45" s="21" t="str">
+        <f>'Sheet 1'!X57</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="str">
+        <f>'Sheet 1'!A58</f>
+        <v>San Marino</v>
+      </c>
+      <c r="B46" s="21" t="str">
+        <f>'Sheet 1'!B58</f>
+        <v>:</v>
+      </c>
+      <c r="C46" s="21" t="str">
+        <f>'Sheet 1'!D58</f>
+        <v>:</v>
+      </c>
+      <c r="D46" s="21" t="str">
+        <f>'Sheet 1'!F58</f>
+        <v>:</v>
+      </c>
+      <c r="E46" s="21" t="str">
+        <f>'Sheet 1'!H58</f>
+        <v>:</v>
+      </c>
+      <c r="F46" s="21" t="str">
+        <f>'Sheet 1'!J58</f>
+        <v>:</v>
+      </c>
+      <c r="G46" s="21" t="str">
+        <f>'Sheet 1'!L58</f>
+        <v>:</v>
+      </c>
+      <c r="H46" s="21" t="str">
+        <f>'Sheet 1'!N58</f>
+        <v>:</v>
+      </c>
+      <c r="I46" s="21" t="str">
+        <f>'Sheet 1'!P58</f>
+        <v>:</v>
+      </c>
+      <c r="J46" s="21" t="str">
+        <f>'Sheet 1'!R58</f>
+        <v>:</v>
+      </c>
+      <c r="K46" s="21" t="str">
+        <f>'Sheet 1'!T58</f>
+        <v>:</v>
+      </c>
+      <c r="L46" s="21" t="str">
+        <f>'Sheet 1'!V58</f>
+        <v>:</v>
+      </c>
+      <c r="M46" s="21" t="str">
+        <f>'Sheet 1'!X58</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="str">
+        <f>'Sheet 1'!A59</f>
+        <v>United States</v>
+      </c>
+      <c r="B47" s="21" t="str">
+        <f>'Sheet 1'!B59</f>
+        <v>:</v>
+      </c>
+      <c r="C47" s="21" t="str">
+        <f>'Sheet 1'!D59</f>
+        <v>:</v>
+      </c>
+      <c r="D47" s="21" t="str">
+        <f>'Sheet 1'!F59</f>
+        <v>:</v>
+      </c>
+      <c r="E47" s="21" t="str">
+        <f>'Sheet 1'!H59</f>
+        <v>:</v>
+      </c>
+      <c r="F47" s="21" t="str">
+        <f>'Sheet 1'!J59</f>
+        <v>:</v>
+      </c>
+      <c r="G47" s="21" t="str">
+        <f>'Sheet 1'!L59</f>
+        <v>:</v>
+      </c>
+      <c r="H47" s="21" t="str">
+        <f>'Sheet 1'!N59</f>
+        <v>:</v>
+      </c>
+      <c r="I47" s="21" t="str">
+        <f>'Sheet 1'!P59</f>
+        <v>:</v>
+      </c>
+      <c r="J47" s="21" t="str">
+        <f>'Sheet 1'!R59</f>
+        <v>:</v>
+      </c>
+      <c r="K47" s="21" t="str">
+        <f>'Sheet 1'!T59</f>
+        <v>:</v>
+      </c>
+      <c r="L47" s="21" t="str">
+        <f>'Sheet 1'!V59</f>
+        <v>:</v>
+      </c>
+      <c r="M47" s="21" t="str">
+        <f>'Sheet 1'!X59</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="str">
+        <f>'Sheet 1'!A60</f>
+        <v>Kyrgyzstan</v>
+      </c>
+      <c r="B48" s="21" t="str">
+        <f>'Sheet 1'!B60</f>
+        <v>:</v>
+      </c>
+      <c r="C48" s="21" t="str">
+        <f>'Sheet 1'!D60</f>
+        <v>:</v>
+      </c>
+      <c r="D48" s="21" t="str">
+        <f>'Sheet 1'!F60</f>
+        <v>:</v>
+      </c>
+      <c r="E48" s="21" t="str">
+        <f>'Sheet 1'!H60</f>
+        <v>:</v>
+      </c>
+      <c r="F48" s="21" t="str">
+        <f>'Sheet 1'!J60</f>
+        <v>:</v>
+      </c>
+      <c r="G48" s="21" t="str">
+        <f>'Sheet 1'!L60</f>
+        <v>:</v>
+      </c>
+      <c r="H48" s="21" t="str">
+        <f>'Sheet 1'!N60</f>
+        <v>:</v>
+      </c>
+      <c r="I48" s="21" t="str">
+        <f>'Sheet 1'!P60</f>
+        <v>:</v>
+      </c>
+      <c r="J48" s="21" t="str">
+        <f>'Sheet 1'!R60</f>
+        <v>:</v>
+      </c>
+      <c r="K48" s="21" t="str">
+        <f>'Sheet 1'!T60</f>
+        <v>:</v>
+      </c>
+      <c r="L48" s="21" t="str">
+        <f>'Sheet 1'!V60</f>
+        <v>:</v>
+      </c>
+      <c r="M48" s="21" t="str">
+        <f>'Sheet 1'!X60</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="str">
+        <f>'Sheet 1'!A61</f>
+        <v>Tajikistan</v>
+      </c>
+      <c r="B49" s="21" t="str">
+        <f>'Sheet 1'!B61</f>
+        <v>:</v>
+      </c>
+      <c r="C49" s="21" t="str">
+        <f>'Sheet 1'!D61</f>
+        <v>:</v>
+      </c>
+      <c r="D49" s="21" t="str">
+        <f>'Sheet 1'!F61</f>
+        <v>:</v>
+      </c>
+      <c r="E49" s="21" t="str">
+        <f>'Sheet 1'!H61</f>
+        <v>:</v>
+      </c>
+      <c r="F49" s="21" t="str">
+        <f>'Sheet 1'!J61</f>
+        <v>:</v>
+      </c>
+      <c r="G49" s="21" t="str">
+        <f>'Sheet 1'!L61</f>
+        <v>:</v>
+      </c>
+      <c r="H49" s="21" t="str">
+        <f>'Sheet 1'!N61</f>
+        <v>:</v>
+      </c>
+      <c r="I49" s="21" t="str">
+        <f>'Sheet 1'!P61</f>
+        <v>:</v>
+      </c>
+      <c r="J49" s="21" t="str">
+        <f>'Sheet 1'!R61</f>
+        <v>:</v>
+      </c>
+      <c r="K49" s="21" t="str">
+        <f>'Sheet 1'!T61</f>
+        <v>:</v>
+      </c>
+      <c r="L49" s="21" t="str">
+        <f>'Sheet 1'!V61</f>
+        <v>:</v>
+      </c>
+      <c r="M49" s="21" t="str">
+        <f>'Sheet 1'!X61</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="str">
+        <f>'Sheet 1'!A62</f>
+        <v>Uzbekistan</v>
+      </c>
+      <c r="B50" s="21" t="str">
+        <f>'Sheet 1'!B62</f>
+        <v>:</v>
+      </c>
+      <c r="C50" s="21" t="str">
+        <f>'Sheet 1'!D62</f>
+        <v>:</v>
+      </c>
+      <c r="D50" s="21" t="str">
+        <f>'Sheet 1'!F62</f>
+        <v>:</v>
+      </c>
+      <c r="E50" s="21" t="str">
+        <f>'Sheet 1'!H62</f>
+        <v>:</v>
+      </c>
+      <c r="F50" s="21" t="str">
+        <f>'Sheet 1'!J62</f>
+        <v>:</v>
+      </c>
+      <c r="G50" s="21" t="str">
+        <f>'Sheet 1'!L62</f>
+        <v>:</v>
+      </c>
+      <c r="H50" s="21" t="str">
+        <f>'Sheet 1'!N62</f>
+        <v>:</v>
+      </c>
+      <c r="I50" s="21" t="str">
+        <f>'Sheet 1'!P62</f>
+        <v>:</v>
+      </c>
+      <c r="J50" s="21" t="str">
+        <f>'Sheet 1'!R62</f>
+        <v>:</v>
+      </c>
+      <c r="K50" s="21" t="str">
+        <f>'Sheet 1'!T62</f>
+        <v>:</v>
+      </c>
+      <c r="L50" s="21" t="str">
+        <f>'Sheet 1'!V62</f>
+        <v>:</v>
+      </c>
+      <c r="M50" s="21" t="str">
+        <f>'Sheet 1'!X62</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="str">
+        <f>'Sheet 1'!A63</f>
+        <v>Armenia</v>
+      </c>
+      <c r="B51" s="21" t="str">
+        <f>'Sheet 1'!B63</f>
+        <v>:</v>
+      </c>
+      <c r="C51" s="21" t="str">
+        <f>'Sheet 1'!D63</f>
+        <v>:</v>
+      </c>
+      <c r="D51" s="21" t="str">
+        <f>'Sheet 1'!F63</f>
+        <v>:</v>
+      </c>
+      <c r="E51" s="21" t="str">
+        <f>'Sheet 1'!H63</f>
+        <v>:</v>
+      </c>
+      <c r="F51" s="21" t="str">
+        <f>'Sheet 1'!J63</f>
+        <v>:</v>
+      </c>
+      <c r="G51" s="21" t="str">
+        <f>'Sheet 1'!L63</f>
+        <v>:</v>
+      </c>
+      <c r="H51" s="21" t="str">
+        <f>'Sheet 1'!N63</f>
+        <v>:</v>
+      </c>
+      <c r="I51" s="21" t="str">
+        <f>'Sheet 1'!P63</f>
+        <v>:</v>
+      </c>
+      <c r="J51" s="21" t="str">
+        <f>'Sheet 1'!R63</f>
+        <v>:</v>
+      </c>
+      <c r="K51" s="21" t="str">
+        <f>'Sheet 1'!T63</f>
+        <v>:</v>
+      </c>
+      <c r="L51" s="21" t="str">
+        <f>'Sheet 1'!V63</f>
+        <v>:</v>
+      </c>
+      <c r="M51" s="21" t="str">
+        <f>'Sheet 1'!X63</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="str">
+        <f>'Sheet 1'!A64</f>
+        <v>Azerbaijan</v>
+      </c>
+      <c r="B52" s="21" t="str">
+        <f>'Sheet 1'!B64</f>
+        <v>:</v>
+      </c>
+      <c r="C52" s="21" t="str">
+        <f>'Sheet 1'!D64</f>
+        <v>:</v>
+      </c>
+      <c r="D52" s="21" t="str">
+        <f>'Sheet 1'!F64</f>
+        <v>:</v>
+      </c>
+      <c r="E52" s="21" t="str">
+        <f>'Sheet 1'!H64</f>
+        <v>:</v>
+      </c>
+      <c r="F52" s="21" t="str">
+        <f>'Sheet 1'!J64</f>
+        <v>:</v>
+      </c>
+      <c r="G52" s="21" t="str">
+        <f>'Sheet 1'!L64</f>
+        <v>:</v>
+      </c>
+      <c r="H52" s="21" t="str">
+        <f>'Sheet 1'!N64</f>
+        <v>:</v>
+      </c>
+      <c r="I52" s="21" t="str">
+        <f>'Sheet 1'!P64</f>
+        <v>:</v>
+      </c>
+      <c r="J52" s="21" t="str">
+        <f>'Sheet 1'!R64</f>
+        <v>:</v>
+      </c>
+      <c r="K52" s="21" t="str">
+        <f>'Sheet 1'!T64</f>
+        <v>:</v>
+      </c>
+      <c r="L52" s="21" t="str">
+        <f>'Sheet 1'!V64</f>
+        <v>:</v>
+      </c>
+      <c r="M52" s="21" t="str">
+        <f>'Sheet 1'!X64</f>
+        <v>:</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:O22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
@@ -925,28 +3752,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -954,7 +3781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -962,27 +3789,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
@@ -990,7 +3817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>13</v>
       </c>
@@ -1013,7 +3840,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>20</v>
       </c>
@@ -1036,7 +3863,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>25</v>
       </c>
@@ -1075,24 +3902,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>28</v>
       </c>
@@ -1100,7 +3927,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>30</v>
       </c>
@@ -1108,7 +3935,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
@@ -1116,7 +3943,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>31</v>
       </c>
@@ -1124,7 +3951,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
@@ -1132,7 +3959,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>31</v>
       </c>
@@ -1140,7 +3967,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
@@ -1148,7 +3975,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>31</v>
       </c>
@@ -1156,7 +3983,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
@@ -1164,7 +3991,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>31</v>
       </c>
@@ -1172,7 +3999,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
@@ -1180,7 +4007,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>31</v>
       </c>
@@ -1188,7 +4015,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
@@ -1196,7 +4023,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>31</v>
       </c>
@@ -1204,7 +4031,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1212,7 +4039,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>31</v>
       </c>
@@ -1220,7 +4047,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
@@ -1228,7 +4055,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>31</v>
       </c>
@@ -1236,7 +4063,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
@@ -1244,7 +4071,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>31</v>
       </c>
@@ -1252,7 +4079,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
@@ -1260,7 +4087,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>31</v>
       </c>
@@ -1268,7 +4095,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1276,7 +4103,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>31</v>
       </c>
@@ -1284,7 +4111,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>31</v>
       </c>
@@ -1292,7 +4119,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>31</v>
       </c>
@@ -1300,7 +4127,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>31</v>
       </c>
@@ -1308,7 +4135,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>31</v>
       </c>
@@ -1316,7 +4143,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
@@ -1324,7 +4151,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>31</v>
       </c>
@@ -1332,7 +4159,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
@@ -1340,7 +4167,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>31</v>
       </c>
@@ -1348,7 +4175,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>31</v>
       </c>
@@ -1356,7 +4183,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>31</v>
       </c>
@@ -1364,7 +4191,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>31</v>
       </c>
@@ -1372,7 +4199,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>31</v>
       </c>
@@ -1380,7 +4207,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>31</v>
       </c>
@@ -1388,7 +4215,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>31</v>
       </c>
@@ -1396,7 +4223,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>31</v>
       </c>
@@ -1404,7 +4231,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>31</v>
       </c>
@@ -1412,7 +4239,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>31</v>
       </c>
@@ -1420,7 +4247,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>31</v>
       </c>
@@ -1428,7 +4255,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>31</v>
       </c>
@@ -1436,7 +4263,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
         <v>31</v>
       </c>
@@ -1444,7 +4271,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>31</v>
       </c>
@@ -1452,7 +4279,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>31</v>
       </c>
@@ -1460,7 +4287,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>31</v>
       </c>
@@ -1468,7 +4295,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
         <v>31</v>
       </c>
@@ -1476,7 +4303,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>31</v>
       </c>
@@ -1484,7 +4311,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>31</v>
       </c>
@@ -1492,7 +4319,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>31</v>
       </c>
@@ -1500,7 +4327,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
         <v>31</v>
       </c>
@@ -1508,7 +4335,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>31</v>
       </c>
@@ -1516,7 +4343,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
         <v>14</v>
       </c>
@@ -1524,7 +4351,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>15</v>
       </c>
@@ -1532,7 +4359,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>16</v>
       </c>
@@ -1540,7 +4367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>16</v>
       </c>
@@ -1548,7 +4375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>17</v>
       </c>
@@ -1556,7 +4383,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>18</v>
       </c>
@@ -1564,7 +4391,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>83</v>
       </c>
@@ -1572,7 +4399,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>83</v>
       </c>
@@ -1580,7 +4407,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
         <v>83</v>
       </c>
@@ -1588,7 +4415,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>83</v>
       </c>
@@ -1596,7 +4423,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>83</v>
       </c>
@@ -1604,7 +4431,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>83</v>
       </c>
@@ -1612,7 +4439,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
         <v>83</v>
       </c>
@@ -1620,7 +4447,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>83</v>
       </c>
@@ -1628,7 +4455,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
         <v>83</v>
       </c>
@@ -1636,7 +4463,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>83</v>
       </c>
@@ -1644,7 +4471,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
         <v>83</v>
       </c>
@@ -1652,7 +4479,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>83</v>
       </c>
@@ -1660,7 +4487,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
         <v>19</v>
       </c>
@@ -1673,7 +4500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y74"/>
   <sheetViews>
@@ -1684,9 +4511,9 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
@@ -1713,12 +4540,12 @@
     <col min="25" max="25" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>97</v>
       </c>
@@ -1726,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>98</v>
       </c>
@@ -1734,7 +4561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1742,7 +4569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1750,7 +4577,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1758,7 +4585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1766,7 +4593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1774,7 +4601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1782,84 +4609,84 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="19" t="s">
+      <c r="C12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="19" t="s">
+      <c r="E12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="19" t="s">
+      <c r="G12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" s="19" t="s">
+      <c r="I12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K12" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="L12" s="19" t="s">
+      <c r="K12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="M12" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="N12" s="19" t="s">
+      <c r="M12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="N12" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="O12" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="P12" s="19" t="s">
+      <c r="O12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="P12" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="Q12" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="R12" s="19" t="s">
+      <c r="Q12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="R12" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="S12" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="T12" s="19" t="s">
+      <c r="S12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="T12" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="U12" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="V12" s="19" t="s">
+      <c r="U12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="V12" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="W12" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="X12" s="19" t="s">
+      <c r="W12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="X12" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="Y12" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y12" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>101</v>
       </c>
@@ -1936,7 +4763,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -2013,7 +4840,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>33</v>
       </c>
@@ -2090,7 +4917,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -2167,7 +4994,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
@@ -2244,7 +5071,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
@@ -2321,7 +5148,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>37</v>
       </c>
@@ -2398,7 +5225,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>38</v>
       </c>
@@ -2475,7 +5302,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>39</v>
       </c>
@@ -2552,7 +5379,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>40</v>
       </c>
@@ -2629,7 +5456,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>41</v>
       </c>
@@ -2706,7 +5533,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>42</v>
       </c>
@@ -2783,7 +5610,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>43</v>
       </c>
@@ -2860,7 +5687,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>44</v>
       </c>
@@ -2937,7 +5764,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>45</v>
       </c>
@@ -3014,7 +5841,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>46</v>
       </c>
@@ -3091,7 +5918,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>47</v>
       </c>
@@ -3168,7 +5995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>48</v>
       </c>
@@ -3245,7 +6072,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>49</v>
       </c>
@@ -3322,7 +6149,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>50</v>
       </c>
@@ -3399,7 +6226,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>51</v>
       </c>
@@ -3476,7 +6303,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>52</v>
       </c>
@@ -3553,7 +6380,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>53</v>
       </c>
@@ -3630,7 +6457,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>54</v>
       </c>
@@ -3707,7 +6534,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>55</v>
       </c>
@@ -3784,7 +6611,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>56</v>
       </c>
@@ -3861,7 +6688,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>57</v>
       </c>
@@ -3938,7 +6765,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>58</v>
       </c>
@@ -4015,7 +6842,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>59</v>
       </c>
@@ -4092,7 +6919,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>60</v>
       </c>
@@ -4169,7 +6996,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>61</v>
       </c>
@@ -4246,7 +7073,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>62</v>
       </c>
@@ -4323,7 +7150,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>63</v>
       </c>
@@ -4400,7 +7227,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>64</v>
       </c>
@@ -4477,7 +7304,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>65</v>
       </c>
@@ -4554,7 +7381,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>66</v>
       </c>
@@ -4631,7 +7458,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>67</v>
       </c>
@@ -4708,7 +7535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>68</v>
       </c>
@@ -4785,7 +7612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>69</v>
       </c>
@@ -4862,7 +7689,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>70</v>
       </c>
@@ -4939,7 +7766,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>71</v>
       </c>
@@ -5016,7 +7843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>72</v>
       </c>
@@ -5093,7 +7920,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>73</v>
       </c>
@@ -5170,7 +7997,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>74</v>
       </c>
@@ -5247,7 +8074,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>75</v>
       </c>
@@ -5324,7 +8151,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>76</v>
       </c>
@@ -5401,7 +8228,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>77</v>
       </c>
@@ -5478,7 +8305,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>78</v>
       </c>
@@ -5555,7 +8382,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>79</v>
       </c>
@@ -5632,7 +8459,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>80</v>
       </c>
@@ -5709,7 +8536,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>81</v>
       </c>
@@ -5786,7 +8613,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>82</v>
       </c>
@@ -5863,12 +8690,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>102</v>
       </c>
@@ -5876,12 +8703,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>108</v>
       </c>
@@ -5889,7 +8716,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>107</v>
       </c>
@@ -5897,7 +8724,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>104</v>
       </c>
@@ -5905,7 +8732,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>103</v>
       </c>
@@ -5913,7 +8740,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>106</v>
       </c>
@@ -5921,7 +8748,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>105</v>
       </c>
@@ -5931,6 +8758,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="V12:W12"/>
     <mergeCell ref="X12:Y12"/>
     <mergeCell ref="L12:M12"/>
@@ -5938,17 +8770,12 @@
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="R12:S12"/>
     <mergeCell ref="T12:U12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y74"/>
   <sheetViews>
@@ -5959,9 +8786,9 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
@@ -5988,12 +8815,12 @@
     <col min="25" max="25" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>97</v>
       </c>
@@ -6001,7 +8828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>98</v>
       </c>
@@ -6009,7 +8836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -6017,7 +8844,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -6025,7 +8852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -6033,7 +8860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -6041,7 +8868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -6049,7 +8876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -6057,84 +8884,84 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="19" t="s">
+      <c r="C12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="19" t="s">
+      <c r="E12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="19" t="s">
+      <c r="G12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" s="19" t="s">
+      <c r="I12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K12" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="L12" s="19" t="s">
+      <c r="K12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="M12" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="N12" s="19" t="s">
+      <c r="M12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="N12" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="O12" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="P12" s="19" t="s">
+      <c r="O12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="P12" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="Q12" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="R12" s="19" t="s">
+      <c r="Q12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="R12" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="S12" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="T12" s="19" t="s">
+      <c r="S12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="T12" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="U12" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="V12" s="19" t="s">
+      <c r="U12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="V12" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="W12" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="X12" s="19" t="s">
+      <c r="W12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="X12" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="Y12" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y12" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>101</v>
       </c>
@@ -6211,7 +9038,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -6288,7 +9115,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>33</v>
       </c>
@@ -6365,7 +9192,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -6442,7 +9269,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
@@ -6519,7 +9346,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
@@ -6596,7 +9423,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>37</v>
       </c>
@@ -6673,7 +9500,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>38</v>
       </c>
@@ -6750,7 +9577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>39</v>
       </c>
@@ -6827,7 +9654,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>40</v>
       </c>
@@ -6904,7 +9731,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>41</v>
       </c>
@@ -6981,7 +9808,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>42</v>
       </c>
@@ -7058,7 +9885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>43</v>
       </c>
@@ -7135,7 +9962,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>44</v>
       </c>
@@ -7212,7 +10039,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>45</v>
       </c>
@@ -7289,7 +10116,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>46</v>
       </c>
@@ -7366,7 +10193,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>47</v>
       </c>
@@ -7443,7 +10270,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>48</v>
       </c>
@@ -7520,7 +10347,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>49</v>
       </c>
@@ -7597,7 +10424,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>50</v>
       </c>
@@ -7674,7 +10501,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>51</v>
       </c>
@@ -7751,7 +10578,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>52</v>
       </c>
@@ -7828,7 +10655,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>53</v>
       </c>
@@ -7905,7 +10732,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>54</v>
       </c>
@@ -7982,7 +10809,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>55</v>
       </c>
@@ -8059,7 +10886,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>56</v>
       </c>
@@ -8136,7 +10963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>57</v>
       </c>
@@ -8213,7 +11040,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>58</v>
       </c>
@@ -8290,7 +11117,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>59</v>
       </c>
@@ -8367,7 +11194,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>60</v>
       </c>
@@ -8444,7 +11271,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>61</v>
       </c>
@@ -8521,7 +11348,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>62</v>
       </c>
@@ -8598,7 +11425,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>63</v>
       </c>
@@ -8675,7 +11502,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>64</v>
       </c>
@@ -8752,7 +11579,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>65</v>
       </c>
@@ -8829,7 +11656,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>66</v>
       </c>
@@ -8906,7 +11733,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>67</v>
       </c>
@@ -8983,7 +11810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>68</v>
       </c>
@@ -9060,7 +11887,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>69</v>
       </c>
@@ -9137,7 +11964,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>70</v>
       </c>
@@ -9214,7 +12041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>71</v>
       </c>
@@ -9291,7 +12118,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>72</v>
       </c>
@@ -9368,7 +12195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>73</v>
       </c>
@@ -9445,7 +12272,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>74</v>
       </c>
@@ -9522,7 +12349,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>75</v>
       </c>
@@ -9599,7 +12426,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>76</v>
       </c>
@@ -9676,7 +12503,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>77</v>
       </c>
@@ -9753,7 +12580,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>78</v>
       </c>
@@ -9830,7 +12657,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>79</v>
       </c>
@@ -9907,7 +12734,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>80</v>
       </c>
@@ -9984,7 +12811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>81</v>
       </c>
@@ -10061,7 +12888,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>82</v>
       </c>
@@ -10138,12 +12965,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>102</v>
       </c>
@@ -10151,12 +12978,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>108</v>
       </c>
@@ -10164,7 +12991,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>107</v>
       </c>
@@ -10172,7 +12999,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>104</v>
       </c>
@@ -10180,7 +13007,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>103</v>
       </c>
@@ -10188,7 +13015,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>106</v>
       </c>
@@ -10196,7 +13023,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>105</v>
       </c>
@@ -10206,6 +13033,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="V12:W12"/>
     <mergeCell ref="X12:Y12"/>
     <mergeCell ref="L12:M12"/>
@@ -10213,11 +13045,6 @@
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="R12:S12"/>
     <mergeCell ref="T12:U12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
